--- a/biology/Botanique/Dureté_Janka/Dureté_Janka.xlsx
+++ b/biology/Botanique/Dureté_Janka/Dureté_Janka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Duret%C3%A9_Janka</t>
+          <t>Dureté_Janka</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le test de dureté Janka détermine la résistance du bois à l'enfoncement ; il mesure la force nécessaire pour enfoncer dans le bois, jusqu'à la moitié de son diamètre, une bille d'acier de 11,284 mm (0,444 pouce).
-Cette méthode, qui laisse une empreinte dans le bois testé, a été mise au point par un dendrologue autrichien, Gabriel Janka (1864-1932), au tout début du XXe siècle. Elle s'utilise sur des échantillons de bois séchés jusqu'à un taux de 12 % d'humidité et les résultats s'expriment en livres-force (lbf), en kilogrammes-force (kgf) ou en newtons (N)[1].
-Les échantillons originaux sur lesquels Janka a fait ses essais sont conservés dans la xylothèque du musée de la recherche forestière de Vienne[2].
+Cette méthode, qui laisse une empreinte dans le bois testé, a été mise au point par un dendrologue autrichien, Gabriel Janka (1864-1932), au tout début du XXe siècle. Elle s'utilise sur des échantillons de bois séchés jusqu'à un taux de 12 % d'humidité et les résultats s'expriment en livres-force (lbf), en kilogrammes-force (kgf) ou en newtons (N).
+Les échantillons originaux sur lesquels Janka a fait ses essais sont conservés dans la xylothèque du musée de la recherche forestière de Vienne.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Duret%C3%A9_Janka</t>
+          <t>Dureté_Janka</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Valeurs du test de Janka</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sauf information complémentaire, les données ci-dessous sont extraites de E. Meier, The Wood Database[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauf information complémentaire, les données ci-dessous sont extraites de E. Meier, The Wood Database.
 </t>
         </is>
       </c>
